--- a/Results/Cov-Vulnerable-Web-App.xlsx
+++ b/Results/Cov-Vulnerable-Web-App.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syeda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC1ABAC-91C5-49CE-B291-41C104B5F156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CD8851-A61A-4496-BBF6-FC4EC99BB949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL Injection" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Coverity Results</t>
   </si>
@@ -50,12 +50,6 @@
     <t>/SQL/sql6.php</t>
   </si>
   <si>
-    <t>True Positives</t>
-  </si>
-  <si>
-    <t>False Positives</t>
-  </si>
-  <si>
     <t>sql2.php</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>fileupload3.php</t>
   </si>
   <si>
-    <t>index.php</t>
-  </si>
-  <si>
     <t>lvl2.php</t>
   </si>
   <si>
@@ -122,16 +113,19 @@
     <t>Actual True Positives</t>
   </si>
   <si>
-    <t>False Negatives</t>
-  </si>
-  <si>
-    <t>Coverity True Positives</t>
+    <t>False Positives by Coverity</t>
+  </si>
+  <si>
+    <t>True Positives by Coverity</t>
+  </si>
+  <si>
+    <t>Actual TP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -615,9 +609,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -972,22 +968,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1009,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1031,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1053,21 +1049,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1075,22 +1083,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1101,132 +1110,135 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -1236,112 +1248,37 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
